--- a/Hardware/master/BOM_master-v13.xlsx
+++ b/Hardware/master/BOM_master-v13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="152">
   <si>
     <t>Qty</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>LP298XS</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/CC0805JRNPO9BN220/311-1103-1-ND/303013</t>
   </si>
 </sst>
 </file>
@@ -890,7 +896,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K8"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1035,7 @@
       <c r="J3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="1"/>
@@ -1069,9 +1075,15 @@
       <c r="H4" s="8">
         <v>0.32</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2054,9 +2066,10 @@
     <hyperlink ref="K21" r:id="rId4"/>
     <hyperlink ref="K23" r:id="rId5"/>
     <hyperlink ref="K24" r:id="rId6"/>
+    <hyperlink ref="K3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
